--- a/Excel/professorpatterns.xlsx
+++ b/Excel/professorpatterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_085DEA2F5749D00F6235547658DCA67CB5BF8704" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67492A10-DF9F-4F9A-9E5A-6100CC8B1518}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_085D1717D27AA20E623554765885B63CB695848B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FB4A2E6-102C-4370-8338-B5C8B63AC5AE}"/>
   <bookViews>
     <workbookView xWindow="1668" yWindow="420" windowWidth="21372" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>video_id</t>
   </si>
@@ -34,81 +34,30 @@
     <t>view_count</t>
   </si>
   <si>
-    <t>title_length</t>
-  </si>
-  <si>
-    <t>view_count_millions</t>
-  </si>
-  <si>
-    <t>M4xR0oas7mI</t>
-  </si>
-  <si>
-    <t>DeepSeek V3 + Cline Integration: The Ult</t>
-  </si>
-  <si>
-    <t>2024-12-28</t>
-  </si>
-  <si>
-    <t>FBCLlyc37UQ</t>
-  </si>
-  <si>
-    <t>Run DeepSeek-R1 Locally | Complete Begin</t>
+    <t>read</t>
+  </si>
+  <si>
+    <t>UzpGgC2SmzI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run Free Text-to-Speech Locally on Open </t>
   </si>
   <si>
     <t>2025-01-20</t>
   </si>
   <si>
-    <t>rAbpvvhi3HQ</t>
-  </si>
-  <si>
-    <t>Access EVERY LLM (Claude, OpenAI, DeepSe</t>
-  </si>
-  <si>
-    <t>2025-01-02</t>
-  </si>
-  <si>
-    <t>UzpGgC2SmzI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run Free Text-to-Speech Locally on Open </t>
+    <t>N</t>
   </si>
   <si>
     <t>LmXaPUky_u4</t>
   </si>
   <si>
-    <t>Open WebUI Knowledge Bases: A Beginner’s</t>
+    <t>Open WebUI Knowledge Bases: RAG &amp; Embedd</t>
   </si>
   <si>
     <t>2025-02-04</t>
   </si>
   <si>
-    <t>G5CcDH-5j7w</t>
-  </si>
-  <si>
-    <t>The Only Git Tutorial You'll Ever Need (</t>
-  </si>
-  <si>
-    <t>2025-01-04</t>
-  </si>
-  <si>
-    <t>5qf9RRquX64</t>
-  </si>
-  <si>
-    <t>DeepSeek-R1 + Cline : The Ultimate AI-Co</t>
-  </si>
-  <si>
-    <t>2025-01-21</t>
-  </si>
-  <si>
-    <t>QtH-RqFcDFc</t>
-  </si>
-  <si>
-    <t>Docker for Complete Beginners</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
     <t>WQaDiskREV4</t>
   </si>
   <si>
@@ -125,6 +74,57 @@
   </si>
   <si>
     <t>2025-01-07</t>
+  </si>
+  <si>
+    <t>pfxxZ7rQUJg</t>
+  </si>
+  <si>
+    <t>Open WebUI Channels</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>lDyFzyD0TD0</t>
+  </si>
+  <si>
+    <t>Open WebUI Custom Models :  Transform An</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>qg7xpO-ggko</t>
+  </si>
+  <si>
+    <t>Open WebUI v0.5 Updates Overview</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>fwscnJu_Md0</t>
+  </si>
+  <si>
+    <t>How to Enable Web Search in Open WebUI</t>
+  </si>
+  <si>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>AklO5yF74zU</t>
+  </si>
+  <si>
+    <t>How to update Open WebUI</t>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>_B7LgSKKSyw</t>
+  </si>
+  <si>
+    <t>Using Open WebUI to make an "AI clone" o</t>
   </si>
 </sst>
 </file>
@@ -487,19 +487,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,71 +515,59 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>8154</v>
-      </c>
-      <c r="E2">
-        <v>71</v>
-      </c>
-      <c r="F2">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1517</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>7020</v>
-      </c>
-      <c r="E3">
-        <v>51</v>
-      </c>
-      <c r="F3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>5256</v>
-      </c>
-      <c r="E4">
-        <v>88</v>
-      </c>
-      <c r="F4">
-        <v>38.93333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1897</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -587,139 +575,121 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>2255</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>1505</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>4068</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>928</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>3903</v>
-      </c>
-      <c r="E5">
-        <v>79</v>
-      </c>
-      <c r="F5">
-        <v>28.911111111111111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>3560</v>
-      </c>
-      <c r="E6">
-        <v>66</v>
-      </c>
-      <c r="F6">
-        <v>26.37037037037037</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D9">
+        <v>3732</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="D7">
-        <v>3290</v>
-      </c>
-      <c r="E7">
-        <v>66</v>
-      </c>
-      <c r="F7">
-        <v>24.37037037037037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>2919</v>
-      </c>
-      <c r="E8">
-        <v>56</v>
-      </c>
-      <c r="F8">
-        <v>21.62222222222222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>2789</v>
-      </c>
-      <c r="E9">
-        <v>29</v>
-      </c>
-      <c r="F9">
-        <v>20.659259259259262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
       <c r="D10">
-        <v>2279</v>
-      </c>
-      <c r="E10">
-        <v>34</v>
-      </c>
-      <c r="F10">
-        <v>16.88148148148148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1639</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>2175</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>16.111111111111111</v>
+        <v>3601</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+    <sortCondition ref="C2:C11"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>